--- a/chongbin_timetable.xlsx
+++ b/chongbin_timetable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chongbin/Desktop/chongbin_master_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D94B8F-8E02-CE40-AB4B-DF322537E4BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99793CC7-0E06-FD40-B72D-F3785B8F7EC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="-2460" windowWidth="25600" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25600" yWindow="-2000" windowWidth="25600" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart Template" sheetId="1" r:id="rId1"/>
@@ -130,21 +130,6 @@
     <t>software &amp; hardware install and configuration</t>
   </si>
   <si>
-    <t>P2P network configuration building</t>
-  </si>
-  <si>
-    <t>Reroduce previous experiment with router in simple message</t>
-  </si>
-  <si>
-    <t>Reproduce Issac experiment 7 and measure performance</t>
-  </si>
-  <si>
-    <t>P2P network measure</t>
-  </si>
-  <si>
-    <t>Udp network  configuration and measurement</t>
-  </si>
-  <si>
     <t>Experiment</t>
   </si>
   <si>
@@ -157,10 +142,25 @@
     <t>Dissertation</t>
   </si>
   <si>
-    <t>Experiment and design</t>
+    <t>Experiment and analysis</t>
   </si>
   <si>
-    <t>result and anyalyse</t>
+    <t>conclusion</t>
+  </si>
+  <si>
+    <t>Reproduce Issac experiment  and measure performance</t>
+  </si>
+  <si>
+    <t>ROS2 install</t>
+  </si>
+  <si>
+    <t>ROS2 communication and message latency test</t>
+  </si>
+  <si>
+    <t>data analysis</t>
+  </si>
+  <si>
+    <t>Reroduce previous experiment with router</t>
   </si>
 </sst>
 </file>
@@ -629,11 +629,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -642,9 +651,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -653,25 +659,19 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1032,8 +1032,8 @@
   </sheetPr>
   <dimension ref="A1:BQ1004"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1057,14 +1057,14 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -1082,17 +1082,17 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
-      <c r="AD1" s="40" t="s">
+      <c r="AD1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
@@ -1202,45 +1202,45 @@
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="54" t="s">
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="44"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="46"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
@@ -1279,47 +1279,47 @@
       <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="54" t="s">
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="42" t="s">
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="44"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="45"/>
+      <c r="AK4" s="45"/>
+      <c r="AL4" s="46"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
@@ -1432,194 +1432,194 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="46" t="s">
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="46" t="s">
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="50"/>
+      <c r="AI6" s="50"/>
+      <c r="AJ6" s="50"/>
+      <c r="AK6" s="50"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="47"/>
-      <c r="AP6" s="47"/>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="47"/>
-      <c r="AS6" s="47"/>
-      <c r="AT6" s="47"/>
-      <c r="AU6" s="47"/>
-      <c r="AV6" s="47"/>
-      <c r="AW6" s="47"/>
-      <c r="AX6" s="47"/>
-      <c r="AY6" s="47"/>
-      <c r="AZ6" s="47"/>
-      <c r="BA6" s="48"/>
-      <c r="BB6" s="46" t="s">
+      <c r="AN6" s="50"/>
+      <c r="AO6" s="50"/>
+      <c r="AP6" s="50"/>
+      <c r="AQ6" s="50"/>
+      <c r="AR6" s="50"/>
+      <c r="AS6" s="50"/>
+      <c r="AT6" s="50"/>
+      <c r="AU6" s="50"/>
+      <c r="AV6" s="50"/>
+      <c r="AW6" s="50"/>
+      <c r="AX6" s="50"/>
+      <c r="AY6" s="50"/>
+      <c r="AZ6" s="50"/>
+      <c r="BA6" s="51"/>
+      <c r="BB6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="BC6" s="47"/>
-      <c r="BD6" s="47"/>
-      <c r="BE6" s="47"/>
-      <c r="BF6" s="47"/>
-      <c r="BG6" s="47"/>
-      <c r="BH6" s="47"/>
-      <c r="BI6" s="47"/>
-      <c r="BJ6" s="47"/>
-      <c r="BK6" s="47"/>
-      <c r="BL6" s="47"/>
-      <c r="BM6" s="47"/>
-      <c r="BN6" s="47"/>
-      <c r="BO6" s="47"/>
-      <c r="BP6" s="48"/>
+      <c r="BC6" s="50"/>
+      <c r="BD6" s="50"/>
+      <c r="BE6" s="50"/>
+      <c r="BF6" s="50"/>
+      <c r="BG6" s="50"/>
+      <c r="BH6" s="50"/>
+      <c r="BI6" s="50"/>
+      <c r="BJ6" s="50"/>
+      <c r="BK6" s="50"/>
+      <c r="BL6" s="50"/>
+      <c r="BM6" s="50"/>
+      <c r="BN6" s="50"/>
+      <c r="BO6" s="50"/>
+      <c r="BP6" s="51"/>
       <c r="BQ6" s="1"/>
     </row>
     <row r="7" spans="1:69" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="49" t="s">
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="49" t="s">
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="49" t="s">
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="49" t="s">
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="49" t="s">
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="46"/>
+      <c r="AH7" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="43"/>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="44"/>
-      <c r="AM7" s="49" t="s">
+      <c r="AI7" s="45"/>
+      <c r="AJ7" s="45"/>
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="46"/>
+      <c r="AM7" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="AN7" s="43"/>
-      <c r="AO7" s="43"/>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="44"/>
-      <c r="AR7" s="49" t="s">
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="45"/>
+      <c r="AQ7" s="46"/>
+      <c r="AR7" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="AS7" s="43"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="44"/>
-      <c r="AW7" s="49" t="s">
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="45"/>
+      <c r="AV7" s="46"/>
+      <c r="AW7" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="AX7" s="43"/>
-      <c r="AY7" s="43"/>
-      <c r="AZ7" s="43"/>
-      <c r="BA7" s="44"/>
-      <c r="BB7" s="49" t="s">
+      <c r="AX7" s="45"/>
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="45"/>
+      <c r="BA7" s="46"/>
+      <c r="BB7" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="BC7" s="43"/>
-      <c r="BD7" s="43"/>
-      <c r="BE7" s="43"/>
-      <c r="BF7" s="44"/>
-      <c r="BG7" s="49" t="s">
+      <c r="BC7" s="45"/>
+      <c r="BD7" s="45"/>
+      <c r="BE7" s="45"/>
+      <c r="BF7" s="46"/>
+      <c r="BG7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="BH7" s="43"/>
-      <c r="BI7" s="43"/>
-      <c r="BJ7" s="43"/>
-      <c r="BK7" s="44"/>
-      <c r="BL7" s="49" t="s">
+      <c r="BH7" s="45"/>
+      <c r="BI7" s="45"/>
+      <c r="BJ7" s="45"/>
+      <c r="BK7" s="46"/>
+      <c r="BL7" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="BM7" s="43"/>
-      <c r="BN7" s="43"/>
-      <c r="BO7" s="43"/>
-      <c r="BP7" s="44"/>
+      <c r="BM7" s="45"/>
+      <c r="BN7" s="45"/>
+      <c r="BO7" s="45"/>
+      <c r="BP7" s="46"/>
       <c r="BQ7" s="1"/>
     </row>
     <row r="8" spans="1:69" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="56"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="57"/>
       <c r="I8" s="8" t="s">
         <v>24</v>
       </c>
@@ -1805,8 +1805,8 @@
     <row r="9" spans="1:69" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="60" t="s">
-        <v>41</v>
+      <c r="C9" s="40" t="s">
+        <v>36</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -1878,7 +1878,7 @@
     <row r="10" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="41" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="16"/>
@@ -1960,7 +1960,7 @@
     <row r="11" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="41" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="16"/>
@@ -2042,8 +2042,8 @@
     <row r="12" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="61" t="s">
-        <v>37</v>
+      <c r="C12" s="41" t="s">
+        <v>46</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="17">
@@ -2124,8 +2124,8 @@
     <row r="13" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="61" t="s">
-        <v>38</v>
+      <c r="C13" s="41" t="s">
+        <v>42</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="17">
@@ -2139,7 +2139,7 @@
         <v>6</v>
       </c>
       <c r="H13" s="32">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="21"/>
@@ -2206,8 +2206,8 @@
     <row r="14" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="61" t="s">
-        <v>36</v>
+      <c r="C14" s="41" t="s">
+        <v>43</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="33">
@@ -2221,7 +2221,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
@@ -2288,8 +2288,8 @@
     <row r="15" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="61" t="s">
-        <v>39</v>
+      <c r="C15" s="41" t="s">
+        <v>44</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="17">
@@ -2303,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="21"/>
@@ -2370,8 +2370,8 @@
     <row r="16" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="61" t="s">
-        <v>40</v>
+      <c r="C16" s="41" t="s">
+        <v>45</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="17">
@@ -2385,7 +2385,7 @@
         <v>11</v>
       </c>
       <c r="H16" s="19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="21"/>
@@ -2452,8 +2452,8 @@
     <row r="17" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="60" t="s">
-        <v>44</v>
+      <c r="C17" s="40" t="s">
+        <v>39</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -2525,8 +2525,8 @@
     <row r="18" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="61" t="s">
-        <v>42</v>
+      <c r="C18" s="41" t="s">
+        <v>37</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="17">
@@ -2540,7 +2540,7 @@
         <v>21</v>
       </c>
       <c r="H18" s="31">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="21"/>
@@ -2607,8 +2607,8 @@
     <row r="19" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="61" t="s">
-        <v>43</v>
+      <c r="C19" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="17">
@@ -2622,7 +2622,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="21"/>
@@ -2689,8 +2689,8 @@
     <row r="20" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="61" t="s">
-        <v>45</v>
+      <c r="C20" s="41" t="s">
+        <v>40</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="33">
@@ -2704,7 +2704,7 @@
         <v>14</v>
       </c>
       <c r="H20" s="34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="21"/>
@@ -2771,8 +2771,8 @@
     <row r="21" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="61" t="s">
-        <v>46</v>
+      <c r="C21" s="41" t="s">
+        <v>41</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="17">
@@ -3825,76 +3825,76 @@
     </row>
     <row r="35" spans="1:69" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
-      <c r="B35" s="45" t="str">
+      <c r="B35" s="48" t="str">
         <f>HYPERLINK("https://goo.gl/PXLbMe","CLICK HERE TO CREATE GANTT CHART TEMPLATES IN SMARTSHEET")</f>
         <v>CLICK HERE TO CREATE GANTT CHART TEMPLATES IN SMARTSHEET</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="41"/>
-      <c r="AD35" s="41"/>
-      <c r="AE35" s="41"/>
-      <c r="AF35" s="41"/>
-      <c r="AG35" s="41"/>
-      <c r="AH35" s="41"/>
-      <c r="AI35" s="41"/>
-      <c r="AJ35" s="41"/>
-      <c r="AK35" s="41"/>
-      <c r="AL35" s="41"/>
-      <c r="AM35" s="41"/>
-      <c r="AN35" s="41"/>
-      <c r="AO35" s="41"/>
-      <c r="AP35" s="41"/>
-      <c r="AQ35" s="41"/>
-      <c r="AR35" s="41"/>
-      <c r="AS35" s="41"/>
-      <c r="AT35" s="41"/>
-      <c r="AU35" s="41"/>
-      <c r="AV35" s="41"/>
-      <c r="AW35" s="41"/>
-      <c r="AX35" s="41"/>
-      <c r="AY35" s="41"/>
-      <c r="AZ35" s="41"/>
-      <c r="BA35" s="41"/>
-      <c r="BB35" s="41"/>
-      <c r="BC35" s="41"/>
-      <c r="BD35" s="41"/>
-      <c r="BE35" s="41"/>
-      <c r="BF35" s="41"/>
-      <c r="BG35" s="41"/>
-      <c r="BH35" s="41"/>
-      <c r="BI35" s="41"/>
-      <c r="BJ35" s="41"/>
-      <c r="BK35" s="41"/>
-      <c r="BL35" s="41"/>
-      <c r="BM35" s="41"/>
-      <c r="BN35" s="41"/>
-      <c r="BO35" s="41"/>
-      <c r="BP35" s="41"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="43"/>
+      <c r="AB35" s="43"/>
+      <c r="AC35" s="43"/>
+      <c r="AD35" s="43"/>
+      <c r="AE35" s="43"/>
+      <c r="AF35" s="43"/>
+      <c r="AG35" s="43"/>
+      <c r="AH35" s="43"/>
+      <c r="AI35" s="43"/>
+      <c r="AJ35" s="43"/>
+      <c r="AK35" s="43"/>
+      <c r="AL35" s="43"/>
+      <c r="AM35" s="43"/>
+      <c r="AN35" s="43"/>
+      <c r="AO35" s="43"/>
+      <c r="AP35" s="43"/>
+      <c r="AQ35" s="43"/>
+      <c r="AR35" s="43"/>
+      <c r="AS35" s="43"/>
+      <c r="AT35" s="43"/>
+      <c r="AU35" s="43"/>
+      <c r="AV35" s="43"/>
+      <c r="AW35" s="43"/>
+      <c r="AX35" s="43"/>
+      <c r="AY35" s="43"/>
+      <c r="AZ35" s="43"/>
+      <c r="BA35" s="43"/>
+      <c r="BB35" s="43"/>
+      <c r="BC35" s="43"/>
+      <c r="BD35" s="43"/>
+      <c r="BE35" s="43"/>
+      <c r="BF35" s="43"/>
+      <c r="BG35" s="43"/>
+      <c r="BH35" s="43"/>
+      <c r="BI35" s="43"/>
+      <c r="BJ35" s="43"/>
+      <c r="BK35" s="43"/>
+      <c r="BL35" s="43"/>
+      <c r="BM35" s="43"/>
+      <c r="BN35" s="43"/>
+      <c r="BO35" s="43"/>
+      <c r="BP35" s="43"/>
       <c r="BQ35" s="1"/>
     </row>
     <row r="36" spans="1:69" ht="13" x14ac:dyDescent="0.15">
